--- a/test/sample_forms/Form-3CE.xlsx
+++ b/test/sample_forms/Form-3CE.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\base\forms\base-form-management\test\sample_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1241D0-C702-4E5C-81E2-C35789E1FE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A0036-5EE8-400E-B1B1-6500532DEFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14095" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14095" uniqueCount="74">
   <si>
     <t>Focal point</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>3CE</t>
+  </si>
+  <si>
+    <t>PA</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1883,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="A1:DN1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4424,7 +4427,7 @@
         <v>52</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>54</v>
@@ -4575,7 +4578,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>54</v>
@@ -5614,7 +5617,7 @@
         <v>52</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>54</v>
@@ -5763,7 +5766,7 @@
         <v>52</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>54</v>
@@ -6353,7 +6356,7 @@
         <v>52</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>54</v>
